--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F269B4B-ACA0-4D09-B903-B47323A9F813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D825A71-1D39-4EA9-A4F7-2254F0530216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-2985" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Studenliste von Florian Henneke</t>
+  </si>
+  <si>
+    <t>Tutorials verstehen; Konzept zusammenfassen</t>
   </si>
 </sst>
 </file>
@@ -130,13 +133,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -454,43 +457,43 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +510,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>44131</v>
       </c>
       <c r="B5">
@@ -522,8 +525,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>44133</v>
       </c>
       <c r="B6">
@@ -537,8 +540,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>44140</v>
       </c>
       <c r="B7">
@@ -552,8 +555,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>44145</v>
       </c>
       <c r="B8">
@@ -567,166 +570,175 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>44146</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D825A71-1D39-4EA9-A4F7-2254F0530216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1905C9D-B374-4DF6-84DF-5849D474767C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Tutorials verstehen; Konzept zusammenfassen</t>
+  </si>
+  <si>
+    <t>Evalution anbindung Redpitaya im Heimnetz</t>
+  </si>
+  <si>
+    <t>Einlesen Sigrok Library, Austesten von SCPI</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,159 +592,177 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>44150</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>44154</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1905C9D-B374-4DF6-84DF-5849D474767C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B59880-F6E4-4EA1-91C1-4C6C93BC19C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Einlesen Sigrok Library, Austesten von SCPI</t>
+  </si>
+  <si>
+    <t>Austesten von rp.h</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C35" si="0">C6+B7</f>
+        <f t="shared" ref="C7:C36" si="0">C6+B7</f>
         <v>10</v>
       </c>
       <c r="D7" t="s">
@@ -584,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>C8+B9</f>
         <v>12</v>
       </c>
       <c r="D9" t="s">
@@ -593,176 +596,191 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>44150</v>
+        <v>44147</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" ref="C10:C36" si="1">C9+B10</f>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
+        <v>44150</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>44154</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B59880-F6E4-4EA1-91C1-4C6C93BC19C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02FEEFB-9FD4-4E4F-B889-355B8805270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="2220" yWindow="255" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Austesten von rp.h</t>
+  </si>
+  <si>
+    <t>Besprechung; Erstellen von Testprojekt incl. CMake Projekt für Sigrokdecode</t>
+  </si>
+  <si>
+    <t>Port libsigrokdecode to Ubuntu/Mint; started decoding data w. libsigrokdecode</t>
+  </si>
+  <si>
+    <t>Weitere Test mit LibsigrokDecode, Einarbeitung in Glib</t>
+  </si>
+  <si>
+    <t>Libsigrokdecode now running, Output not tested</t>
   </si>
 </sst>
 </file>
@@ -131,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +161,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -466,18 +485,18 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -486,7 +505,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -495,18 +514,18 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -519,11 +538,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44131</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
       <c r="C5">
@@ -534,11 +553,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44133</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6">
@@ -549,26 +568,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44140</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C36" si="0">C6+B7</f>
+        <f t="shared" ref="C7:C8" si="0">C6+B7</f>
         <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44145</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8">
@@ -579,11 +598,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44146</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>1</v>
       </c>
       <c r="C9">
@@ -594,11 +613,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44147</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>3</v>
       </c>
       <c r="C10">
@@ -609,11 +628,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44150</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
       <c r="C11">
@@ -624,11 +643,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44154</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12">
@@ -639,148 +658,184 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44159</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5</v>
+      </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44161</v>
+      </c>
+      <c r="B14" s="9">
+        <v>4.5</v>
+      </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44165</v>
+      </c>
+      <c r="B15" s="9">
+        <v>4</v>
+      </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44168</v>
+      </c>
+      <c r="B16" s="9">
+        <v>4</v>
+      </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>38.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02FEEFB-9FD4-4E4F-B889-355B8805270A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B7FEA1-E1C6-4750-B065-8CEC2B81DC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="255" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Libsigrokdecode now running, Output not tested</t>
+  </si>
+  <si>
+    <t>Libsirokdecode annotation outpur callback running and interpreting; Gedanken um Kommunikation</t>
   </si>
 </sst>
 </file>
@@ -155,12 +158,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,6 +165,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -485,38 +488,38 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -525,7 +528,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -542,7 +545,7 @@
       <c r="A5" s="4">
         <v>44131</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5">
@@ -557,7 +560,7 @@
       <c r="A6" s="4">
         <v>44133</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6">
@@ -572,7 +575,7 @@
       <c r="A7" s="4">
         <v>44140</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7">
@@ -587,7 +590,7 @@
       <c r="A8" s="4">
         <v>44145</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
       <c r="C8">
@@ -602,7 +605,7 @@
       <c r="A9" s="4">
         <v>44146</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9">
@@ -617,7 +620,7 @@
       <c r="A10" s="4">
         <v>44147</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
       <c r="C10">
@@ -632,7 +635,7 @@
       <c r="A11" s="4">
         <v>44150</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11">
@@ -647,7 +650,7 @@
       <c r="A12" s="4">
         <v>44154</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>5</v>
       </c>
       <c r="C12">
@@ -662,7 +665,7 @@
       <c r="A13" s="4">
         <v>44159</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>5</v>
       </c>
       <c r="C13">
@@ -677,7 +680,7 @@
       <c r="A14" s="4">
         <v>44161</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>4.5</v>
       </c>
       <c r="C14">
@@ -692,7 +695,7 @@
       <c r="A15" s="4">
         <v>44165</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>4</v>
       </c>
       <c r="C15">
@@ -707,7 +710,7 @@
       <c r="A16" s="4">
         <v>44168</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>4</v>
       </c>
       <c r="C16">
@@ -718,124 +721,133 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44182</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B7FEA1-E1C6-4750-B065-8CEC2B81DC9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F375DC2-CBD4-4BAE-9DDD-64820D7688A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="255" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Libsirokdecode annotation outpur callback running and interpreting; Gedanken um Kommunikation</t>
+  </si>
+  <si>
+    <t>Setup VPN Server</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,117 +740,135 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44183</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>45.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44184</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F375DC2-CBD4-4BAE-9DDD-64820D7688A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EDC87-972D-44BB-A7A2-E477025AC7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="255" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Setup VPN Server</t>
+  </si>
+  <si>
+    <t>Besprechung; Verbesserung der Ausgaben von decoder-&gt;options; Einarbeitung Python c-api</t>
+  </si>
+  <si>
+    <t>Add python c-api to test project; Trying to output current options from python object</t>
+  </si>
+  <si>
+    <t>Function printCurrentOptions now functional; added function setOptions; added function setSampleRate</t>
+  </si>
+  <si>
+    <t>Testing Json Lib; Defining json data structures; Testing loguru logging library</t>
+  </si>
+  <si>
+    <t>Recherche und Testen wg. alternativen VPN</t>
+  </si>
+  <si>
+    <t>Decoding first UART Signal</t>
   </si>
 </sst>
 </file>
@@ -490,19 +508,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -511,7 +529,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -520,14 +538,14 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44131</v>
       </c>
@@ -559,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44133</v>
       </c>
@@ -574,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44140</v>
       </c>
@@ -589,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44145</v>
       </c>
@@ -604,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44146</v>
       </c>
@@ -619,7 +637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44147</v>
       </c>
@@ -634,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44150</v>
       </c>
@@ -649,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44154</v>
       </c>
@@ -664,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44159</v>
       </c>
@@ -679,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44161</v>
       </c>
@@ -694,7 +712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44165</v>
       </c>
@@ -709,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44168</v>
       </c>
@@ -724,7 +742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44182</v>
       </c>
@@ -739,7 +757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44183</v>
       </c>
@@ -754,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44184</v>
       </c>
@@ -769,106 +787,160 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>44187</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>44188</v>
+      </c>
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>56.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>44194</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>44206</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.5</v>
+      </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>44210</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.5</v>
+      </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>44212</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>49.5</v>
+        <v>67.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EDC87-972D-44BB-A7A2-E477025AC7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B322BCF2-D30C-4215-AB48-BA3012ABD39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="765" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Decoding first UART Signal</t>
+  </si>
+  <si>
+    <t>libsigrok integration, WebApp tests, vpn &amp; vnc connection. Wiederkehrende Fehler &amp; VPN/VNC dokumentiert</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,19 +514,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -529,7 +535,7 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -538,14 +544,14 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44131</v>
       </c>
@@ -577,7 +583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44133</v>
       </c>
@@ -592,7 +598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44140</v>
       </c>
@@ -607,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44145</v>
       </c>
@@ -622,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44146</v>
       </c>
@@ -637,7 +643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44147</v>
       </c>
@@ -652,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44150</v>
       </c>
@@ -667,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44154</v>
       </c>
@@ -682,7 +688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44159</v>
       </c>
@@ -697,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44161</v>
       </c>
@@ -712,7 +718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44165</v>
       </c>
@@ -727,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44168</v>
       </c>
@@ -742,7 +748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44182</v>
       </c>
@@ -757,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44183</v>
       </c>
@@ -772,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44184</v>
       </c>
@@ -787,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44187</v>
       </c>
@@ -802,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44188</v>
       </c>
@@ -817,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44194</v>
       </c>
@@ -832,7 +838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44206</v>
       </c>
@@ -847,7 +853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44210</v>
       </c>
@@ -862,7 +868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44212</v>
       </c>
@@ -877,70 +883,79 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44220</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>67.5</v>
+        <v>76.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Michi\OTH\GIT\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B322BCF2-D30C-4215-AB48-BA3012ABD39A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099A6F6-EDF2-4709-92DE-B3EA0832CB86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="465" yWindow="45" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>libsigrok integration, WebApp tests, vpn &amp; vnc connection. Wiederkehrende Fehler &amp; VPN/VNC dokumentiert</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
+  </si>
+  <si>
+    <t>Besprechung, erste Design Schritte</t>
+  </si>
+  <si>
+    <t>template_app, Makfiles</t>
+  </si>
+  <si>
+    <t>Design Class Diagram</t>
+  </si>
+  <si>
+    <t>Refinement Class Diagram</t>
   </si>
 </sst>
 </file>
@@ -189,14 +204,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,22 +542,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -651,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C36" si="1">C9+B10</f>
+        <f t="shared" ref="C10:C39" si="1">C9+B10</f>
         <v>15</v>
       </c>
       <c r="D10" t="s">
@@ -876,86 +891,113 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f>C24+B25</f>
         <v>67.5</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
+        <v>44215</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C33" si="2">C25+B26</f>
+        <v>68.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44217</v>
+      </c>
+      <c r="B27" s="7">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>73.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44219</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>76.5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>44220</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>85.5</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44221</v>
+      </c>
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
+        <f t="shared" si="2"/>
+        <v>90.5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44223</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.5</v>
+      </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5099A6F6-EDF2-4709-92DE-B3EA0832CB86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA23C9D-3C6C-4022-B671-00B6DFD5B8CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="465" yWindow="45" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Refinement Class Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Refinement Class Diagram in Meeting</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C39" si="1">C9+B10</f>
+        <f t="shared" ref="C10:C24" si="1">C9+B10</f>
         <v>15</v>
       </c>
       <c r="D10" t="s">
@@ -763,7 +769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44182</v>
       </c>
@@ -778,7 +784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44183</v>
       </c>
@@ -793,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44184</v>
       </c>
@@ -808,7 +814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44187</v>
       </c>
@@ -823,7 +829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44188</v>
       </c>
@@ -838,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44194</v>
       </c>
@@ -853,7 +859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44206</v>
       </c>
@@ -868,7 +874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44210</v>
       </c>
@@ -883,7 +889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44212</v>
       </c>
@@ -898,7 +904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44215</v>
       </c>
@@ -913,7 +919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44217</v>
       </c>
@@ -928,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44219</v>
       </c>
@@ -943,7 +949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44220</v>
       </c>
@@ -958,7 +964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44221</v>
       </c>
@@ -973,7 +979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44223</v>
       </c>
@@ -988,16 +994,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44224</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
       <c r="C32">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA23C9D-3C6C-4022-B671-00B6DFD5B8CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AACFD0-3069-40DE-99D0-ECC6EC53DAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="45" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Refinement Class Diagram in Meeting</t>
+  </si>
+  <si>
+    <t>Besprechung Michl, Anfang Implementierung</t>
+  </si>
+  <si>
+    <t>Besprechung Alex, Implementierung</t>
+  </si>
+  <si>
+    <t>Implementierung Beispielfunktionalität, Debugging Kompilierungsfehler, Besprechung mit Allen, Debugging Makefile</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
   </si>
 </sst>
 </file>
@@ -533,21 +545,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -556,7 +568,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -565,14 +577,14 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44131</v>
       </c>
@@ -604,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44133</v>
       </c>
@@ -619,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44140</v>
       </c>
@@ -634,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44145</v>
       </c>
@@ -649,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44146</v>
       </c>
@@ -664,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44147</v>
       </c>
@@ -679,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44150</v>
       </c>
@@ -694,7 +706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44154</v>
       </c>
@@ -709,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44159</v>
       </c>
@@ -724,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44161</v>
       </c>
@@ -739,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44165</v>
       </c>
@@ -754,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44168</v>
       </c>
@@ -769,7 +781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44182</v>
       </c>
@@ -784,7 +796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44183</v>
       </c>
@@ -799,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44184</v>
       </c>
@@ -814,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44187</v>
       </c>
@@ -829,7 +841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>44188</v>
       </c>
@@ -844,7 +856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44194</v>
       </c>
@@ -859,7 +871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44206</v>
       </c>
@@ -874,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44210</v>
       </c>
@@ -889,7 +901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44212</v>
       </c>
@@ -904,7 +916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44215</v>
       </c>
@@ -912,14 +924,14 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C33" si="2">C25+B26</f>
+        <f t="shared" ref="C26:C38" si="2">C25+B26</f>
         <v>68.5</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44217</v>
       </c>
@@ -934,7 +946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44219</v>
       </c>
@@ -949,7 +961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44220</v>
       </c>
@@ -964,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44221</v>
       </c>
@@ -979,7 +991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44223</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44224</v>
       </c>
@@ -1012,10 +1024,85 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>44244</v>
+      </c>
+      <c r="B33" s="7">
+        <v>5</v>
+      </c>
       <c r="C33">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>44245</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>44247</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>44248</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>44249</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AACFD0-3069-40DE-99D0-ECC6EC53DAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D1CBED-A835-44B0-B0A9-9ED2FD8D7AF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-15525" yWindow="-315" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Debugging problem with json lib. Building implementation.</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Debugging, Implementierung LogicSession</t>
+  </si>
+  <si>
+    <t>Nur Debugging der Kommunikation</t>
+  </si>
+  <si>
+    <t>Debugging, Besprechung wg Abgabe</t>
+  </si>
+  <si>
+    <t>Leztes Debugging, Anfang Dokumentation, Bericht, …</t>
   </si>
 </sst>
 </file>
@@ -545,21 +563,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -568,7 +586,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -577,14 +595,14 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44131</v>
       </c>
@@ -616,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44133</v>
       </c>
@@ -631,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44140</v>
       </c>
@@ -646,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44145</v>
       </c>
@@ -661,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44146</v>
       </c>
@@ -676,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44147</v>
       </c>
@@ -691,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44150</v>
       </c>
@@ -706,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44154</v>
       </c>
@@ -721,7 +739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44159</v>
       </c>
@@ -736,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44161</v>
       </c>
@@ -751,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44165</v>
       </c>
@@ -766,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44168</v>
       </c>
@@ -781,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44182</v>
       </c>
@@ -796,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44183</v>
       </c>
@@ -811,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44184</v>
       </c>
@@ -826,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44187</v>
       </c>
@@ -841,7 +859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44188</v>
       </c>
@@ -856,7 +874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44194</v>
       </c>
@@ -871,7 +889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44206</v>
       </c>
@@ -886,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44210</v>
       </c>
@@ -901,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44212</v>
       </c>
@@ -916,7 +934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44215</v>
       </c>
@@ -924,14 +942,14 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C38" si="2">C25+B26</f>
+        <f t="shared" ref="C26:C44" si="2">C25+B26</f>
         <v>68.5</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44217</v>
       </c>
@@ -946,7 +964,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44219</v>
       </c>
@@ -961,7 +979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44220</v>
       </c>
@@ -976,7 +994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44221</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>44223</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44224</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44244</v>
       </c>
@@ -1039,7 +1057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>44245</v>
       </c>
@@ -1054,7 +1072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44247</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44248</v>
       </c>
@@ -1084,7 +1102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44249</v>
       </c>
@@ -1099,10 +1117,100 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44250</v>
+      </c>
+      <c r="B38" s="7">
+        <v>7</v>
+      </c>
       <c r="C38">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44251</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44252</v>
+      </c>
+      <c r="B40" s="7">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>44253</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44254</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>152.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44255</v>
+      </c>
+      <c r="B43" s="7">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>155.5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>155.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D1CBED-A835-44B0-B0A9-9ED2FD8D7AF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08531D5-C067-488E-B67C-14B216D0941C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15525" yWindow="-315" windowWidth="15165" windowHeight="17430" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Leztes Debugging, Anfang Dokumentation, Bericht, …</t>
+  </si>
+  <si>
+    <t>Dokumentation, Video</t>
+  </si>
+  <si>
+    <t>Doku</t>
+  </si>
+  <si>
+    <t>Doku, Präsentation</t>
   </si>
 </sst>
 </file>
@@ -563,21 +572,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -586,7 +595,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -595,14 +604,14 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44131</v>
       </c>
@@ -634,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44133</v>
       </c>
@@ -649,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44140</v>
       </c>
@@ -664,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44145</v>
       </c>
@@ -679,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44146</v>
       </c>
@@ -694,7 +703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44147</v>
       </c>
@@ -709,7 +718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44150</v>
       </c>
@@ -724,7 +733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44154</v>
       </c>
@@ -739,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44159</v>
       </c>
@@ -754,7 +763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44161</v>
       </c>
@@ -769,7 +778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44165</v>
       </c>
@@ -784,7 +793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44168</v>
       </c>
@@ -799,7 +808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44182</v>
       </c>
@@ -814,7 +823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44183</v>
       </c>
@@ -829,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44184</v>
       </c>
@@ -844,7 +853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44187</v>
       </c>
@@ -859,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>44188</v>
       </c>
@@ -874,7 +883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44194</v>
       </c>
@@ -889,7 +898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44206</v>
       </c>
@@ -904,7 +913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44210</v>
       </c>
@@ -919,7 +928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44212</v>
       </c>
@@ -934,7 +943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44215</v>
       </c>
@@ -942,14 +951,14 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C44" si="2">C25+B26</f>
+        <f t="shared" ref="C26:C47" si="2">C25+B26</f>
         <v>68.5</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44217</v>
       </c>
@@ -964,7 +973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44219</v>
       </c>
@@ -979,7 +988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44220</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44221</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44223</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44224</v>
       </c>
@@ -1042,7 +1051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44244</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44245</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44247</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>44248</v>
       </c>
@@ -1102,7 +1111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>44249</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>44250</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>44251</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>44252</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>44253</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>44254</v>
       </c>
@@ -1192,25 +1201,70 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>44255</v>
       </c>
       <c r="B43" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <f t="shared" si="2"/>
-        <v>155.5</v>
+        <v>158.5</v>
       </c>
       <c r="D43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>44256</v>
+      </c>
+      <c r="B44" s="7">
+        <v>6</v>
+      </c>
       <c r="C44">
         <f t="shared" si="2"/>
-        <v>155.5</v>
+        <v>164.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44257</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>166.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>44258</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>169.5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>169.5</v>
       </c>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\henne\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1CD14-1490-41CC-8727-245828BE19E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F3F7E-3426-40CF-B869-B47F9F083811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>CleanUp Git Repo; Anfang Build Envirionment m. Michl</t>
+  </si>
+  <si>
+    <t>Cross Environment fixes, Integration of old code into new environment</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -159,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,10 +461,10 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -494,7 +497,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +529,19 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4">
+        <v>44301</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C5, B6)</f>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\henne\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F3F7E-3426-40CF-B869-B47F9F083811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E186D38-31B4-4E09-B45E-BADB33A157C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>Cross Environment fixes, Integration of old code into new environment</t>
+  </si>
+  <si>
+    <t>Besprechung intern; Weiter Build Environment; Erzeugen von Sample JSON für Annotation Data</t>
+  </si>
+  <si>
+    <t>Einrichtung Redpitaya</t>
+  </si>
+  <si>
+    <t>Getting cross comp working, Getting application running, Getting chosen decoder and loading chosen decoder</t>
+  </si>
+  <si>
+    <t>Building deploy scripts, sanitizing git, getting guthub actions running</t>
+  </si>
+  <si>
+    <t>Debugging build of webui, discussion on data transfer and display</t>
   </si>
 </sst>
 </file>
@@ -146,7 +161,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,10 +476,10 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -497,7 +512,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,19 +559,79 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4">
+        <v>44308</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C6, B7)</f>
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>44309</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C11" si="0">SUM(C7, B8)</f>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4">
+        <v>44315</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4">
+        <v>44316</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4">
+        <v>44318</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\HSP-RPOSC-Redpitaya-Oszilloskop\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.henneke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E186D38-31B4-4E09-B45E-BADB33A157C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574B1BC-0BA1-4CB4-891C-7C71776F8D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Debugging build of webui, discussion on data transfer and display</t>
+  </si>
+  <si>
+    <t>Fixing Seg fault, Adding functionality to send real requestedOptions</t>
+  </si>
+  <si>
+    <t>Fix sending empty values</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Adding func to get chosen options</t>
+  </si>
+  <si>
+    <t>Debugging Scontainer OnNew and Value Updates</t>
   </si>
 </sst>
 </file>
@@ -161,7 +176,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -476,10 +491,10 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -512,7 +527,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C11" si="0">SUM(C7, B8)</f>
+        <f t="shared" ref="C8:C17" si="0">SUM(C7, B8)</f>
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -634,19 +649,79 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4">
+        <v>44319</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4">
+        <v>44320</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4">
+        <v>44322</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4">
+        <v>44328</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>44329</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.henneke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_RPOSC\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8574B1BC-0BA1-4CB4-891C-7C71776F8D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D221C148-AAE4-41A9-8C4F-A08F22CFDAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>Debugging Scontainer OnNew and Value Updates</t>
+  </si>
+  <si>
+    <t>Meeting, Bugfixes</t>
+  </si>
+  <si>
+    <t>Trying to fix signals from frontend to backend</t>
+  </si>
+  <si>
+    <t>Bugfixing fronted, Changing SRDChosenOptions to parameter, integrating and testing of functionality</t>
+  </si>
+  <si>
+    <t>Adding SRDChannelMap to backend</t>
+  </si>
+  <si>
+    <t>Meeting intern</t>
+  </si>
+  <si>
+    <t>Adding functionality of logic session, Adding functionality to annotaionData</t>
   </si>
 </sst>
 </file>
@@ -176,7 +194,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,18 +509,18 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -511,7 +529,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -520,14 +538,14 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44274</v>
       </c>
@@ -558,7 +576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44301</v>
       </c>
@@ -573,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44308</v>
       </c>
@@ -588,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44309</v>
       </c>
@@ -596,14 +614,14 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C17" si="0">SUM(C7, B8)</f>
+        <f t="shared" ref="C8:C22" si="0">SUM(C7, B8)</f>
         <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44315</v>
       </c>
@@ -618,7 +636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44316</v>
       </c>
@@ -633,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44318</v>
       </c>
@@ -648,7 +666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44319</v>
       </c>
@@ -663,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44320</v>
       </c>
@@ -678,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44322</v>
       </c>
@@ -693,7 +711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44328</v>
       </c>
@@ -708,7 +726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44329</v>
       </c>
@@ -723,99 +741,171 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>44336</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>44336</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>44337</v>
+      </c>
+      <c r="B19" s="7">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>44346</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>44350</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>44351</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="E32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_RPOSC\stundenlisten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.henneke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D221C148-AAE4-41A9-8C4F-A08F22CFDAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB970423-F7CE-4E71-9254-4AF6D447A7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Adding functionality of logic session, Adding functionality to annotaionData</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,7 +213,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,18 +512,18 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -529,7 +532,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -538,14 +541,14 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44274</v>
       </c>
@@ -576,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44301</v>
       </c>
@@ -591,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44308</v>
       </c>
@@ -606,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44309</v>
       </c>
@@ -614,14 +617,14 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C22" si="0">SUM(C7, B8)</f>
+        <f t="shared" ref="C8:C24" si="0">SUM(C7, B8)</f>
         <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44315</v>
       </c>
@@ -636,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44316</v>
       </c>
@@ -651,7 +654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44318</v>
       </c>
@@ -666,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44319</v>
       </c>
@@ -681,7 +684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44320</v>
       </c>
@@ -696,7 +699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44322</v>
       </c>
@@ -711,7 +714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44328</v>
       </c>
@@ -726,7 +729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44329</v>
       </c>
@@ -741,7 +744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44336</v>
       </c>
@@ -756,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44336</v>
       </c>
@@ -771,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>44337</v>
       </c>
@@ -786,7 +789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44346</v>
       </c>
@@ -801,7 +804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44350</v>
       </c>
@@ -816,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44351</v>
       </c>
@@ -831,81 +834,105 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44357</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44364</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="E32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f.henneke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_RPOSC\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB970423-F7CE-4E71-9254-4AF6D447A7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816997A-3F1F-4921-B067-659D452B1AF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
+    <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -115,13 +115,31 @@
   </si>
   <si>
     <t>Besprechung</t>
+  </si>
+  <si>
+    <t>Setting up environment at home, testing and debugging channel map</t>
+  </si>
+  <si>
+    <t>Reordering the project in my head, TODOs for future</t>
+  </si>
+  <si>
+    <t>Internes Meeting</t>
+  </si>
+  <si>
+    <t>Debugging LogicSession</t>
+  </si>
+  <si>
+    <t>Debugging LogicSession, Acquirer und AnnotationData</t>
+  </si>
+  <si>
+    <t>Meeting, Debugging Aquise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +163,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF32373F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,18 +210,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,44 +533,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44274</v>
       </c>
@@ -579,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44301</v>
       </c>
@@ -594,7 +616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44308</v>
       </c>
@@ -609,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44309</v>
       </c>
@@ -617,14 +639,14 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C24" si="0">SUM(C7, B8)</f>
+        <f t="shared" ref="C8:C30" si="0">SUM(C7, B8)</f>
         <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44315</v>
       </c>
@@ -639,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44316</v>
       </c>
@@ -654,7 +676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44318</v>
       </c>
@@ -669,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44319</v>
       </c>
@@ -684,7 +706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44320</v>
       </c>
@@ -699,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44322</v>
       </c>
@@ -714,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44328</v>
       </c>
@@ -729,7 +751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44329</v>
       </c>
@@ -744,7 +766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44336</v>
       </c>
@@ -759,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44336</v>
       </c>
@@ -774,7 +796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44337</v>
       </c>
@@ -789,7 +811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44346</v>
       </c>
@@ -804,7 +826,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>44350</v>
       </c>
@@ -819,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44351</v>
       </c>
@@ -834,7 +856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44357</v>
       </c>
@@ -849,7 +871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44364</v>
       </c>
@@ -864,75 +886,145 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>44376</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>44409</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>44412</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>44413</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>44414</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>44420</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="E32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
     </row>
   </sheetData>
@@ -941,6 +1033,6 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_RPOSC\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8816997A-3F1F-4921-B067-659D452B1AF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5989E93-4C12-4BD3-BAAC-3AF8E3FC9DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Meeting, Debugging Aquise</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Fixing bug in ChannelMap, Searching bug in setting srdOptions</t>
+  </si>
+  <si>
+    <t>Bugfixes in acquirer, Debugging decoding</t>
+  </si>
+  <si>
+    <t>Updating to newer libsigrok version</t>
   </si>
 </sst>
 </file>
@@ -210,13 +222,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -533,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,22 +558,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -639,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C30" si="0">SUM(C7, B8)</f>
+        <f t="shared" ref="C8:C35" si="0">SUM(C7, B8)</f>
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -897,7 +909,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -912,7 +924,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -942,7 +954,7 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -957,7 +969,7 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -972,59 +984,119 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4">
+        <v>44421</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4">
+        <v>44422</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>44426</v>
+      </c>
+      <c r="B33" s="7">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>44427</v>
+      </c>
+      <c r="B34" s="7">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>44428</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
     </row>
   </sheetData>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_RPOSC\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AF36508-7A1C-40BC-A666-1F234BBB194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE594599-2B42-49A6-9498-9E4019C9AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Studenliste von Florian Henneke</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>Fixing aquirer, cleanup logic session code</t>
+  </si>
+  <si>
+    <t>Doku, Test Frontend</t>
+  </si>
+  <si>
+    <t>Begin presentation, begin video, test higher baud rates, i2c and can</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
@@ -233,11 +245,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -591,11 +603,11 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="28.9">
       <c r="A4" s="1" t="s">
@@ -666,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C38" si="0">SUM(C7, B8)</f>
+        <f t="shared" ref="C8:C44" si="0">SUM(C7, B8)</f>
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -924,7 +936,7 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -939,7 +951,7 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -954,7 +966,7 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -969,7 +981,7 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -984,7 +996,7 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -999,7 +1011,7 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1014,7 +1026,7 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1029,7 +1041,7 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E32" t="s">
@@ -1047,7 +1059,7 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1062,7 +1074,7 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1077,7 +1089,7 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1127,22 +1139,94 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
+      <c r="A39" s="3">
+        <v>44445</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3"/>
+      <c r="A40" s="3">
+        <v>44446</v>
+      </c>
+      <c r="B40" s="6">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3"/>
+      <c r="A41" s="3">
+        <v>44447</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3">
+        <v>44452</v>
+      </c>
+      <c r="B42" s="6">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>44453</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>44454</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3"/>

--- a/stundenlisten/Stundenliste-FlorianHenneke.xlsx
+++ b/stundenlisten/Stundenliste-FlorianHenneke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\https_RPOSC\stundenlisten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE594599-2B42-49A6-9498-9E4019C9AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B537642-C920-4383-8F19-EE4037FB2E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2304" windowWidth="16404" windowHeight="9420" xr2:uid="{BE701AB6-5A3E-442C-8219-9B93BD6F3CD4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Studenliste von Florian Henneke</t>
   </si>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE639EC-E41E-4FE7-B5F2-AD1BA98AEA4D}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C44" si="0">SUM(C7, B8)</f>
+        <f t="shared" ref="C8:C45" si="0">SUM(C7, B8)</f>
         <v>20</v>
       </c>
       <c r="D8" t="s">
@@ -1229,7 +1229,19 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3"/>
